--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.7797858217251</v>
+        <v>34.446933</v>
       </c>
       <c r="H2">
-        <v>33.7797858217251</v>
+        <v>103.340799</v>
       </c>
       <c r="I2">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="J2">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N2">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q2">
-        <v>2547.877384272713</v>
+        <v>3882.44950600609</v>
       </c>
       <c r="R2">
-        <v>2547.877384272713</v>
+        <v>34942.04555405481</v>
       </c>
       <c r="S2">
-        <v>0.06664006170178638</v>
+        <v>0.07226029598968463</v>
       </c>
       <c r="T2">
-        <v>0.06664006170178638</v>
+        <v>0.07226029598968463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7797858217251</v>
+        <v>34.446933</v>
       </c>
       <c r="H3">
-        <v>33.7797858217251</v>
+        <v>103.340799</v>
       </c>
       <c r="I3">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="J3">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N3">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q3">
-        <v>6257.724841195932</v>
+        <v>6530.395131985859</v>
       </c>
       <c r="R3">
-        <v>6257.724841195932</v>
+        <v>58773.55618787273</v>
       </c>
       <c r="S3">
-        <v>0.1636716005661059</v>
+        <v>0.12154395940936</v>
       </c>
       <c r="T3">
-        <v>0.1636716005661059</v>
+        <v>0.12154395940936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.7797858217251</v>
+        <v>34.446933</v>
       </c>
       <c r="H4">
-        <v>33.7797858217251</v>
+        <v>103.340799</v>
       </c>
       <c r="I4">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="J4">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N4">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q4">
-        <v>3153.793926911155</v>
+        <v>3811.595288013681</v>
       </c>
       <c r="R4">
-        <v>3153.793926911155</v>
+        <v>34304.35759212313</v>
       </c>
       <c r="S4">
-        <v>0.08248788704722966</v>
+        <v>0.07094155462387199</v>
       </c>
       <c r="T4">
-        <v>0.08248788704722966</v>
+        <v>0.07094155462387197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.7797858217251</v>
+        <v>34.446933</v>
       </c>
       <c r="H5">
-        <v>33.7797858217251</v>
+        <v>103.340799</v>
       </c>
       <c r="I5">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="J5">
-        <v>0.3860765122351092</v>
+        <v>0.3406054910909001</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N5">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q5">
-        <v>2801.628807720943</v>
+        <v>4075.839674531862</v>
       </c>
       <c r="R5">
-        <v>2801.628807720943</v>
+        <v>36682.55707078676</v>
       </c>
       <c r="S5">
-        <v>0.07327696291998731</v>
+        <v>0.07585968106798353</v>
       </c>
       <c r="T5">
-        <v>0.07327696291998731</v>
+        <v>0.07585968106798353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.7339779348964</v>
+        <v>40.11196</v>
       </c>
       <c r="H6">
-        <v>39.7339779348964</v>
+        <v>120.33588</v>
       </c>
       <c r="I6">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="J6">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N6">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O6">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P6">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q6">
-        <v>2996.978853027655</v>
+        <v>4520.944122570681</v>
       </c>
       <c r="R6">
-        <v>2996.978853027655</v>
+        <v>40688.49710313613</v>
       </c>
       <c r="S6">
-        <v>0.07838636855820333</v>
+        <v>0.08414398176831564</v>
       </c>
       <c r="T6">
-        <v>0.07838636855820333</v>
+        <v>0.08414398176831563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.7339779348964</v>
+        <v>40.11196</v>
       </c>
       <c r="H7">
-        <v>39.7339779348964</v>
+        <v>120.33588</v>
       </c>
       <c r="I7">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="J7">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N7">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O7">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P7">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q7">
-        <v>7360.74237045101</v>
+        <v>7604.361999903199</v>
       </c>
       <c r="R7">
-        <v>7360.74237045101</v>
+        <v>68439.25799912879</v>
       </c>
       <c r="S7">
-        <v>0.1925211663503292</v>
+        <v>0.1415326710819181</v>
       </c>
       <c r="T7">
-        <v>0.1925211663503292</v>
+        <v>0.1415326710819181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.7339779348964</v>
+        <v>40.11196</v>
       </c>
       <c r="H8">
-        <v>39.7339779348964</v>
+        <v>120.33588</v>
       </c>
       <c r="I8">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="J8">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N8">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O8">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P8">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q8">
-        <v>3709.697242144874</v>
+        <v>4438.437457668387</v>
       </c>
       <c r="R8">
-        <v>3709.697242144874</v>
+        <v>39945.93711901548</v>
       </c>
       <c r="S8">
-        <v>0.09702760997741187</v>
+        <v>0.08260836462307307</v>
       </c>
       <c r="T8">
-        <v>0.09702760997741187</v>
+        <v>0.08260836462307304</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.7339779348964</v>
+        <v>40.11196</v>
       </c>
       <c r="H9">
-        <v>39.7339779348964</v>
+        <v>120.33588</v>
       </c>
       <c r="I9">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="J9">
-        <v>0.4541282676951022</v>
+        <v>0.396620327110647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N9">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O9">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P9">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q9">
-        <v>3295.457757347885</v>
+        <v>4746.138589210107</v>
       </c>
       <c r="R9">
-        <v>3295.457757347885</v>
+        <v>42715.24730289096</v>
       </c>
       <c r="S9">
-        <v>0.08619312280915778</v>
+        <v>0.08833530963734024</v>
       </c>
       <c r="T9">
-        <v>0.08619312280915778</v>
+        <v>0.08833530963734021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.225993973918094</v>
+        <v>0.3464193333333334</v>
       </c>
       <c r="H10">
-        <v>0.225993973918094</v>
+        <v>1.039258</v>
       </c>
       <c r="I10">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="J10">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N10">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O10">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P10">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q10">
-        <v>17.04584327937054</v>
+        <v>39.04427629510467</v>
       </c>
       <c r="R10">
-        <v>17.04584327937054</v>
+        <v>351.3984866559421</v>
       </c>
       <c r="S10">
-        <v>0.0004458362301530002</v>
+        <v>0.0007266935364961488</v>
       </c>
       <c r="T10">
-        <v>0.0004458362301530002</v>
+        <v>0.0007266935364961487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.225993973918094</v>
+        <v>0.3464193333333334</v>
       </c>
       <c r="H11">
-        <v>0.225993973918094</v>
+        <v>1.039258</v>
       </c>
       <c r="I11">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="J11">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N11">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O11">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P11">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q11">
-        <v>41.86551424604681</v>
+        <v>65.67362987078666</v>
       </c>
       <c r="R11">
-        <v>41.86551424604681</v>
+        <v>591.06266883708</v>
       </c>
       <c r="S11">
-        <v>0.001094997926413148</v>
+        <v>0.001222320065164704</v>
       </c>
       <c r="T11">
-        <v>0.001094997926413148</v>
+        <v>0.001222320065164704</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.225993973918094</v>
+        <v>0.3464193333333334</v>
       </c>
       <c r="H12">
-        <v>0.225993973918094</v>
+        <v>1.039258</v>
       </c>
       <c r="I12">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="J12">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N12">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O12">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P12">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q12">
-        <v>21.09955421928735</v>
+        <v>38.33172313512422</v>
       </c>
       <c r="R12">
-        <v>21.09955421928735</v>
+        <v>344.985508216118</v>
       </c>
       <c r="S12">
-        <v>0.0005518615627787982</v>
+        <v>0.000713431470326603</v>
       </c>
       <c r="T12">
-        <v>0.0005518615627787982</v>
+        <v>0.000713431470326603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.225993973918094</v>
+        <v>0.3464193333333334</v>
       </c>
       <c r="H13">
-        <v>0.225993973918094</v>
+        <v>1.039258</v>
       </c>
       <c r="I13">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="J13">
-        <v>0.002582934234601792</v>
+        <v>0.003425336216532898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N13">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O13">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P13">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q13">
-        <v>18.7434944390045</v>
+        <v>40.98912558702622</v>
       </c>
       <c r="R13">
-        <v>18.7434944390045</v>
+        <v>368.902130283236</v>
       </c>
       <c r="S13">
-        <v>0.0004902385152568456</v>
+        <v>0.0007628911445454417</v>
       </c>
       <c r="T13">
-        <v>0.0004902385152568456</v>
+        <v>0.0007628911445454416</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.755297656705</v>
+        <v>26.22909066666666</v>
       </c>
       <c r="H14">
-        <v>13.755297656705</v>
+        <v>78.68727199999999</v>
       </c>
       <c r="I14">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="J14">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N14">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O14">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P14">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q14">
-        <v>1037.508408088193</v>
+        <v>2956.231839327726</v>
       </c>
       <c r="R14">
-        <v>1037.508408088193</v>
+        <v>26606.08655394953</v>
       </c>
       <c r="S14">
-        <v>0.02713616626839957</v>
+        <v>0.05502149799848966</v>
       </c>
       <c r="T14">
-        <v>0.02713616626839957</v>
+        <v>0.05502149799848965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.755297656705</v>
+        <v>26.22909066666666</v>
       </c>
       <c r="H15">
-        <v>13.755297656705</v>
+        <v>78.68727199999999</v>
       </c>
       <c r="I15">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="J15">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N15">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O15">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P15">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q15">
-        <v>2548.17683861831</v>
+        <v>4972.469566623412</v>
       </c>
       <c r="R15">
-        <v>2548.17683861831</v>
+        <v>44752.22609961071</v>
       </c>
       <c r="S15">
-        <v>0.06664789396882978</v>
+        <v>0.09254779028756363</v>
       </c>
       <c r="T15">
-        <v>0.06664789396882978</v>
+        <v>0.09254779028756363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.755297656705</v>
+        <v>26.22909066666666</v>
       </c>
       <c r="H16">
-        <v>13.755297656705</v>
+        <v>78.68727199999999</v>
       </c>
       <c r="I16">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="J16">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N16">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O16">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P16">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q16">
-        <v>1284.240653316138</v>
+        <v>2902.280977930612</v>
       </c>
       <c r="R16">
-        <v>1284.240653316138</v>
+        <v>26120.52880137551</v>
       </c>
       <c r="S16">
-        <v>0.03358947997466492</v>
+        <v>0.05401736254034064</v>
       </c>
       <c r="T16">
-        <v>0.03358947997466492</v>
+        <v>0.05401736254034063</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.755297656705</v>
+        <v>26.22909066666666</v>
       </c>
       <c r="H17">
-        <v>13.755297656705</v>
+        <v>78.68727199999999</v>
       </c>
       <c r="I17">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="J17">
-        <v>0.1572122858351868</v>
+        <v>0.25934884558192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N17">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O17">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P17">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q17">
-        <v>1140.837256256856</v>
+        <v>3103.48582749278</v>
       </c>
       <c r="R17">
-        <v>1140.837256256856</v>
+        <v>27931.37244743502</v>
       </c>
       <c r="S17">
-        <v>0.02983874562329259</v>
+        <v>0.05776219475552603</v>
       </c>
       <c r="T17">
-        <v>0.02983874562329259</v>
+        <v>0.05776219475552603</v>
       </c>
     </row>
   </sheetData>
